--- a/hybridActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
     <sheet name="managercreds" sheetId="3" r:id="rId3"/>
+    <sheet name="customer&amp;projectcreds" sheetId="4" r:id="rId4"/>
+    <sheet name="taskcreds" sheetId="5" r:id="rId5"/>
+    <sheet name="testengineercreds" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -75,14 +78,64 @@
   </si>
   <si>
     <t>Dhoni</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>Yes Bank Online</t>
+  </si>
+  <si>
+    <t>Task_Name</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Create Maual test case for Shoppers Profile</t>
+  </si>
+  <si>
+    <t>Aug 05,2023</t>
+  </si>
+  <si>
+    <t>Billing Type</t>
+  </si>
+  <si>
+    <t>Billable</t>
+  </si>
+  <si>
+    <t>testeng</t>
+  </si>
+  <si>
+    <t>Testeng@123</t>
+  </si>
+  <si>
+    <t>Avinash</t>
+  </si>
+  <si>
+    <t>Patil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,10 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,4 +607,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hybridActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>manager2</t>
-  </si>
-  <si>
     <t>Manager@124</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Create Maual test case for Shoppers Profile</t>
   </si>
   <si>
-    <t>Aug 05,2023</t>
-  </si>
-  <si>
     <t>Billing Type</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>Patil</t>
+  </si>
+  <si>
+    <t>Oct 15,2023</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,16 +589,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -625,18 +622,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,24 +659,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,16 +717,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/hybridActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,16 +186,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -689,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +730,7 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -730,6 +741,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hybridActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridActiTimeProject/data/ActiTimeTestData.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +135,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,19 +178,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,7 +690,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +719,7 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -741,9 +730,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>